--- a/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>ISS order 2</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,6 +444,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3">
         <v>21</v>
       </c>

--- a/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -381,7 +381,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,12 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
       <c r="C4">
         <v>12</v>
       </c>
@@ -487,6 +493,12 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5">
         <v>21</v>
       </c>

--- a/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -381,7 +381,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,13 +451,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>83675124</v>
       </c>
       <c r="E3" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>61537284</v>
@@ -519,14 +519,20 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
       <c r="C6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>46273851</v>
       </c>
       <c r="E6" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>45863712</v>
@@ -539,6 +545,12 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7">
         <v>21</v>
       </c>
@@ -559,6 +571,12 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
       <c r="C8">
         <v>12</v>
       </c>

--- a/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asternin/Documents/PhDProject.git/Music and Memory - Lucy/Testing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="39620" yWindow="880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -158,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -193,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -370,7 +365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,7 +379,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
@@ -397,7 +392,7 @@
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +418,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>101</v>
       </c>
@@ -443,7 +438,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>102</v>
       </c>
@@ -466,7 +461,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>103</v>
       </c>
@@ -492,7 +487,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>104</v>
       </c>
@@ -518,7 +513,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>105</v>
       </c>
@@ -544,7 +539,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>106</v>
       </c>
@@ -570,7 +565,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>107</v>
       </c>
@@ -578,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>43815267</v>
@@ -596,7 +591,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="C9">
         <v>21</v>
       </c>
@@ -616,7 +611,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="C10">
         <v>12</v>
       </c>
@@ -636,7 +631,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11">
         <v>21</v>
       </c>
@@ -656,7 +651,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12">
         <v>12</v>
       </c>
@@ -676,7 +671,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13">
         <v>21</v>
       </c>
@@ -696,7 +691,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -705,7 +700,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -716,5 +711,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory - Lucy/Testing/fMRITestingOrder.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,17 +85,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -376,7 +387,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -566,22 +577,22 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>43815267</v>
       </c>
-      <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="7">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7">
         <v>35742816</v>
       </c>
       <c r="G8" s="2"/>
@@ -592,6 +603,12 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C9">
         <v>21</v>
       </c>
